--- a/data/trans_camb/P16B18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Clase-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.688765207055136</v>
+        <v>-3.295292290280873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.97785989383438</v>
+        <v>-20.47892251711406</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.75010522914898</v>
+        <v>19.87482527257688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.88319208287117</v>
+        <v>14.89701213837772</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03373132199277672</v>
+        <v>-0.008807939708176563</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2396581176140822</v>
+        <v>-0.2282132697499907</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2950959381975845</v>
+        <v>0.2872827353504359</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2031514534302463</v>
+        <v>0.1857105782858993</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.29574937828847</v>
+        <v>2.286355316193206</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.26603583257541</v>
+        <v>-7.373733118521248</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.18804544396652</v>
+        <v>16.93926035964882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.26760374382543</v>
+        <v>13.5058894400636</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02349685637416633</v>
+        <v>0.0233983898170262</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08475338244012455</v>
+        <v>-0.07872159894732662</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.237440273418671</v>
+        <v>0.2039369194152739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.159326489143723</v>
+        <v>0.1610839816418106</v>
       </c>
     </row>
     <row r="16">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.868183002429463</v>
+        <v>-12.17381456398667</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>44.24917251307753</v>
+        <v>44.47001530194427</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>58.88788462910473</v>
+        <v>51.72180854770555</v>
       </c>
     </row>
     <row r="19">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1089886335927778</v>
+        <v>-0.1173149439771093</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.897903962782938</v>
+        <v>0.9076389765576701</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.431590647952912</v>
+        <v>1.071172892578711</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.013292236040514</v>
+        <v>-2.693545376511223</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.13114347640049</v>
+        <v>-12.22645896473646</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.36733227538019</v>
+        <v>9.837038859634045</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.673443771852579</v>
+        <v>5.707313267611798</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03078221289881028</v>
+        <v>-0.02795133341166616</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1213809009451528</v>
+        <v>-0.1237459692949243</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1281375143034142</v>
+        <v>0.1091471114101638</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.06155196517371116</v>
+        <v>0.06112477789919601</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.925035605597966</v>
+        <v>2.660705948536362</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.309175453553557</v>
+        <v>-5.596493370338895</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.09838689175063</v>
+        <v>22.75272133076649</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>18.10443296591185</v>
+        <v>18.19895394281165</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.03013137681224885</v>
+        <v>0.02732940982464691</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05659854722290079</v>
+        <v>-0.05868353957587429</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2836324005541913</v>
+        <v>0.2945083666684722</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2253256667739812</v>
+        <v>0.2255238307193002</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0</v>
+        <v>0.8043229315451612</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.712277491649252</v>
+        <v>2.744419660266088</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.27406802246872</v>
+        <v>22.9683777566596</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.80769165268915</v>
+        <v>23.91791514871463</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.000439340077618558</v>
+        <v>0.008287215068552485</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.0278789195037343</v>
+        <v>0.02821815601292585</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2873619497491651</v>
+        <v>0.3059923473209776</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3124627901328316</v>
+        <v>0.3143568738235427</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.030035867110544</v>
+        <v>2.789137202985916</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.217273401765402</v>
+        <v>-0.6278354760761086</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.41912633442246</v>
+        <v>11.2566271078905</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.168631521339842</v>
+        <v>9.266811127870621</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03203091363943743</v>
+        <v>0.02969446995021246</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01328529864327481</v>
+        <v>-0.005876731642746732</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1317199189379091</v>
+        <v>0.1292091098865709</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1032918279127697</v>
+        <v>0.1055687142397877</v>
       </c>
     </row>
     <row r="46">
